--- a/docs/PTA2_DDC_100/PTA2_DDC_100_13.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731786124.776366</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731786128.8161955</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786124.776366.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786128.8161955.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.4599999999999795</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731786133.859765</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731786135.6641288</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786133.859765.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786135.6641288.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.41</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.66</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731786138.9570994</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731786138.9570994.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731786138.9570994.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.91</v>
       </c>
-      <c r="J5" t="n">
-        <v>135.91</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4799999999999898</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731786148.0834053</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731786153.0875425</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786148.0834053.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786153.0875425.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7005</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7009.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-4.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731786157.8493667</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731786160.166049</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786157.8493667.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786160.166049.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7025</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7025</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731786162.611972</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731786169.512623</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786162.611972.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786169.512623.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>486.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>487.7</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731786173.4085371</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731786175.8584282</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786173.4085371.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786175.8584282.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>490.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>489.45</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731786176.350336</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731786177.1284304</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786176.350336.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786177.1284304.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>487.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>489.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.450000000000045</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -947,95 +1011,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731786179.9172435</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731786179.9172435.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731786179.9172435.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>491.55</v>
       </c>
-      <c r="J11" t="n">
-        <v>491.55</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731786185.4943104</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731786188.5275564</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786185.4943104.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786188.5275564.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>929.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>927.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.199999999999932</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731786195.141448</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731786195.9881146</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786195.141448.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786195.9881146.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>925.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>929.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>3.800000000000068</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731786199.5149376</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731786200.0874286</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786199.5149376.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786200.0874286.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>931.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>929.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731786202.19741</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731786202.19741.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731786202.19741.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>934.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>934.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>934.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731786202.8727238</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731786214.4723763</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731786202.8727238.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731786214.4723763.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>37.73</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>38.315</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.5850000000000009</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-1.55</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731786215.4820235</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731786219.6560857</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731786215.4820235.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731786219.6560857.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>38.165</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>38.22</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1295,95 +1401,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731786220.9152243</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731786220.9152243.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731786220.9152243.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>38.375</v>
       </c>
-      <c r="J18" t="n">
-        <v>38.375</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731786224.5258634</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731786226.8652418</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786224.5258634.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786226.8652418.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1233.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1228.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4.600000000000136</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731786230.0925193</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731786232.0523748</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786230.0925193.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786232.0523748.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1238.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1235</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1443,51 +1567,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731786236.4750626</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731786242.388177</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786236.4750626.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786242.388177.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1233.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1226.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-6.400000000000091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -1495,95 +1625,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731786243.865461</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731786243.865461.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731786243.865461.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1230</v>
       </c>
-      <c r="J22" t="n">
-        <v>1230</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1233.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731786246.2132194</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731786250.378371</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786246.2132194.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786250.378371.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>80.89</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>80.77</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731786251.60183</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731786253.513219</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786251.60183.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786253.513219.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>81.23999999999999</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>81.05</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731786257.725573</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731786264.1043298</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786257.725573.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731786264.1043298.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>80.93000000000001</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>80.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.4300000000000068</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -1695,95 +1849,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731786265.5733428</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731786265.5733428.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731786265.5733428.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="J26" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>80.79000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.1900000000000119</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731786267.6037574</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731786274.2202582</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786267.6037574.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786274.2202582.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>14.187</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>14.215</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.02800000000000047</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1791,51 +1957,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731786280.548493</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731786281.584463</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786280.548493.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786281.584463.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>14.138</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>14.226</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.08800000000000097</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -1843,95 +2015,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731786287.4367073</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731786287.4367073.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731786287.4367073.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>14.281</v>
       </c>
-      <c r="J29" t="n">
-        <v>14.281</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.08799999999999919</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731786291.5240543</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731786292.197495</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786291.5240543.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786292.197495.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>104.07</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>104.39</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1939,51 +2123,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731786293.670962</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731786300.7841086</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786293.670962.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786300.7841086.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>104.67</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>105.52</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.8499999999999943</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -1991,51 +2181,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731786302.1951113</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731786307.232172</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786302.1951113.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731786307.232172.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>105.13</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>105.31</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2043,95 +2239,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731786309.0547545</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731786309.0547545.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731786309.0547545.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>105.7</v>
       </c>
-      <c r="J33" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>106.15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.4500000000000028</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731786311.0064127</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731786320.7660809</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731786311.0064127.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731786320.7660809.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>347.84</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>350.62</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-2.78000000000003</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -2139,51 +2347,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731786321.8587334</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731786324.592604</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731786321.8587334.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731786324.592604.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>349.91</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>350.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2191,95 +2405,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731786325.7116807</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731786325.7116807.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731786325.7116807.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>351.96</v>
       </c>
-      <c r="J36" t="n">
-        <v>351.96</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731786329.314044</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731786331.6257482</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786329.314044.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786331.6257482.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>2780.75</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>2771.75</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>9</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2287,51 +2513,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731786332.7769074</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731786337.7098093</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786332.7769074.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786337.7098093.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>2781.9</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>2783.9</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2339,51 +2571,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731786341.4780166</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731786346.4082232</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786341.4780166.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786346.4082232.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>2782.75</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>2782.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.3499999999999091</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2391,95 +2629,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731786347.7651782</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731786347.7651782.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731786347.7651782.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>2792</v>
       </c>
-      <c r="J40" t="n">
-        <v>2792</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-3.199999999999818</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731786355.9876668</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731786360.7638285</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786355.9876668.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786360.7638285.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>595</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>595.3</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2487,51 +2737,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731786361.382123</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731786367.3604884</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786361.382123.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786367.3604884.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>590.9</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>589.9</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2539,51 +2795,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731786368.370191</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731786368.6895483</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786368.370191.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731786368.6895483.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>592.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>590.9</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.700000000000045</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2591,44 +2853,50 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731786371.503209</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731786371.503209.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731786371.503209.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>595.1</v>
       </c>
-      <c r="J44" t="n">
-        <v>595.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>594.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2689,19 +2957,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.400000000000091</v>
+        <v>-1.799999999999955</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3500000000000227</v>
+        <v>-0.4499999999999886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -2711,19 +2979,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3499999999999801</v>
+        <v>-0.7999999999999829</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08749999999999503</v>
+        <v>-0.1999999999999957</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.33</v>
+        <v>-0.76</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.08</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="4">
@@ -2733,19 +3001,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.650000000000091</v>
+        <v>3.450000000000273</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.662500000000023</v>
+        <v>0.8625000000000682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -2755,19 +3023,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.400000000000091</v>
+        <v>7.000000000000114</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.850000000000023</v>
+        <v>1.750000000000028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -2777,19 +3045,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.150000000000034</v>
+        <v>-0.6499999999999773</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2875000000000085</v>
+        <v>-0.1624999999999943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.23</v>
+        <v>-0.14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7">
@@ -2799,19 +3067,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4000000000000909</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1000000000000227</v>
+        <v>0.2250000000000227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -2821,19 +3089,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-0.3100000000000165</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.07750000000000412</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.15</v>
+        <v>-0.39</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
@@ -2843,19 +3111,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0600000000000005</v>
+        <v>-0.02799999999999869</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02000000000000017</v>
+        <v>-0.009333333333332897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.42</v>
+        <v>-0.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2865,19 +3133,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.090000000000032</v>
+        <v>-1.840000000000032</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6966666666666773</v>
+        <v>-0.6133333333333439</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-0.53</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="11">
@@ -2887,19 +3155,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2099999999999795</v>
+        <v>-0.6899999999999693</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06999999999999318</v>
+        <v>-0.2299999999999898</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.16</v>
+        <v>-0.51</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="12">
@@ -2909,19 +3177,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.5300000000000011</v>
+        <v>-0.5600000000000023</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1766666666666671</v>
+        <v>-0.1866666666666674</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.41</v>
+        <v>-1.49</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13">
